--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-676177.7605094867</v>
+        <v>-678837.2786214995</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.48435851</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13548347.89154165</v>
+        <v>13548347.89154166</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>119.0193462440461</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>191.057862079855</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>286.4192921925778</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>145.9219060821652</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>49.11254969570091</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>367.8031824235874</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>248.8014812238028</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>7.035800080892343</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1066,10 +1066,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>67.22331801800635</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>182.7843480143022</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>4.484183613895556</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1294,22 +1294,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>129.3529366136842</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>81.89701814208242</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1379,13 +1379,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922736</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>243.1373908222572</v>
+        <v>84.07981473403045</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>145.2857567969021</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>12.35680705403964</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -2005,22 +2005,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>172.6684446854161</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>21.85677025083604</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>87.21471514852804</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>42.5313457611372</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545303</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3910,13 +3910,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1465.289389295559</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="C2" t="n">
-        <v>1345.067827432886</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="D2" t="n">
-        <v>1345.067827432886</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>959.2795748346414</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>548.2936700450339</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.89447953245</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W2" t="n">
-        <v>2228.89447953245</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X2" t="n">
-        <v>1855.42872127137</v>
+        <v>1589.195369430331</v>
       </c>
       <c r="Y2" t="n">
-        <v>1465.289389295559</v>
+        <v>1589.195369430331</v>
       </c>
     </row>
     <row r="3">
@@ -4410,19 +4410,19 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>590.2049751143501</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>1800.470091281865</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
         <v>2214.708848710446</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1422.059675386301</v>
+        <v>1590.995858314208</v>
       </c>
       <c r="C4" t="n">
         <v>1422.059675386301</v>
@@ -4513,25 +4513,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>2414.943463670696</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>2414.943463670696</v>
+        <v>2339.360847594891</v>
       </c>
       <c r="U4" t="n">
-        <v>2414.943463670696</v>
+        <v>2050.242510098728</v>
       </c>
       <c r="V4" t="n">
-        <v>2160.258975464809</v>
+        <v>2000.633874042465</v>
       </c>
       <c r="W4" t="n">
-        <v>1870.841805427848</v>
+        <v>2000.633874042465</v>
       </c>
       <c r="X4" t="n">
-        <v>1642.852254529831</v>
+        <v>1772.644323144448</v>
       </c>
       <c r="Y4" t="n">
-        <v>1422.059675386301</v>
+        <v>1772.644323144448</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1550.959102576163</v>
+        <v>1582.523854133141</v>
       </c>
       <c r="C5" t="n">
-        <v>1181.996585635751</v>
+        <v>1582.523854133141</v>
       </c>
       <c r="D5" t="n">
-        <v>1181.996585635751</v>
+        <v>1224.25815552639</v>
       </c>
       <c r="E5" t="n">
-        <v>1181.996585635751</v>
+        <v>838.469902928146</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4598,19 +4598,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2311.024700901365</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.024700901365</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W5" t="n">
-        <v>2311.024700901365</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X5" t="n">
-        <v>1937.558942640285</v>
+        <v>1582.523854133141</v>
       </c>
       <c r="Y5" t="n">
-        <v>1937.558942640285</v>
+        <v>1582.523854133141</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
@@ -4641,31 +4641,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625332</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M6" t="n">
-        <v>956.2844025217532</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1343.569531118698</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
-        <v>1675.63996629486</v>
+        <v>2015.115393042426</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>609.1284824998271</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C7" t="n">
-        <v>602.021613731249</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D7" t="n">
-        <v>451.9049743189132</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E7" t="n">
-        <v>303.9918807365201</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386097</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386097</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="V7" t="n">
-        <v>1347.327782578335</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="W7" t="n">
-        <v>1057.910612541375</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="X7" t="n">
-        <v>829.9210616433572</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="Y7" t="n">
-        <v>609.1284824998271</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1378.810406950778</v>
+        <v>1975.598450347025</v>
       </c>
       <c r="C8" t="n">
-        <v>1009.847890010366</v>
+        <v>1606.635933406614</v>
       </c>
       <c r="D8" t="n">
-        <v>651.5821914036155</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E8" t="n">
-        <v>651.5821914036155</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800312</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816083</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4820,34 +4820,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2557.809850002281</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2349.064208608105</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.01262627016</v>
+        <v>2349.064208608105</v>
       </c>
       <c r="V8" t="n">
-        <v>1768.949738926589</v>
+        <v>2349.064208608105</v>
       </c>
       <c r="W8" t="n">
-        <v>1768.949738926589</v>
+        <v>2349.064208608105</v>
       </c>
       <c r="X8" t="n">
-        <v>1768.949738926589</v>
+        <v>1975.598450347025</v>
       </c>
       <c r="Y8" t="n">
-        <v>1378.810406950778</v>
+        <v>1975.598450347025</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605189</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>1092.885047004312</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1456.147065963532</v>
+        <v>1178.376567084329</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560477</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>788.8276219385416</v>
+        <v>648.8722344236533</v>
       </c>
       <c r="C10" t="n">
-        <v>619.8914390106347</v>
+        <v>479.9360514957464</v>
       </c>
       <c r="D10" t="n">
-        <v>619.8914390106347</v>
+        <v>329.8194120834106</v>
       </c>
       <c r="E10" t="n">
-        <v>471.9783454282416</v>
+        <v>181.9063185010175</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1553.721859324919</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1553.721859324919</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1553.721859324919</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U10" t="n">
-        <v>1553.721859324919</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V10" t="n">
-        <v>1299.037371119032</v>
+        <v>869.6648135671834</v>
       </c>
       <c r="W10" t="n">
-        <v>1009.620201082072</v>
+        <v>869.6648135671834</v>
       </c>
       <c r="X10" t="n">
-        <v>1009.620201082072</v>
+        <v>869.6648135671834</v>
       </c>
       <c r="Y10" t="n">
-        <v>788.8276219385416</v>
+        <v>648.8722344236533</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>228.9331431646415</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>562.8579153358621</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L12" t="n">
-        <v>1058.183521551621</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M12" t="n">
-        <v>1655.562009178173</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>2283.159972732779</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263531</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356242</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232884</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408953</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.811296842985</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>2264.108249235165</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172279</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135318</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237301</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093771</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="14">
@@ -5258,43 +5258,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>800.5007694647277</v>
+        <v>800.5007694647263</v>
       </c>
       <c r="C16" t="n">
-        <v>631.5645865368208</v>
+        <v>800.5007694647263</v>
       </c>
       <c r="D16" t="n">
-        <v>631.5645865368208</v>
+        <v>650.3841300523906</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>502.4710364699974</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>355.5810889720871</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>188.384989686967</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5446,40 +5446,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>1975.033022579361</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373476</v>
+        <v>1720.348534373474</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.931364336515</v>
+        <v>1430.931364336514</v>
       </c>
       <c r="X16" t="n">
-        <v>1202.941813438498</v>
+        <v>1202.941813438496</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1492342949674</v>
+        <v>982.149234294966</v>
       </c>
     </row>
     <row r="17">
@@ -5519,13 +5519,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5613,7 +5613,7 @@
         <v>2294.325993963485</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>559.0424953278208</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C19" t="n">
-        <v>559.0424953278208</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D19" t="n">
-        <v>408.925855915485</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2022.649975098258</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1733.574748442456</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1478.890260236569</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1189.473090199608</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>961.4835393015907</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>740.6909601580605</v>
+        <v>961.2628027535235</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380872</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101803</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683269</v>
       </c>
     </row>
     <row r="23">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6178,13 +6178,13 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
         <v>974.1018203925706</v>
@@ -6230,22 +6230,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6458,7 +6458,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6467,13 +6467,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>527.7722521572603</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656824</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345475</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7357,13 +7357,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345477</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7786,13 +7786,13 @@
         <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380734</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311328</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979287</v>
@@ -7825,7 +7825,7 @@
         <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>168.7434581780648</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8298,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>294.8344935184732</v>
+        <v>186.5911984019046</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,22 +8529,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>114.3555089013344</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>224.3355197601774</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9656,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>220.489840693099</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>43.64947665233952</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>83.31180848589122</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856724</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>9.000252501570827</v>
+        <v>168.0578285897976</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.14820584966705</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>127.9379057921843</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012319</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>44.7370056418722</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>196.7278831012588</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>61.40075786968431</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>106.0841272570752</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24886,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,13 +25129,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>6.257951202385186</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>-6.699085858273953e-13</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -26323,13 +26323,13 @@
         <v>242143.9799070018</v>
       </c>
       <c r="F2" t="n">
+        <v>242143.9799070018</v>
+      </c>
+      <c r="G2" t="n">
         <v>242143.9799070017</v>
       </c>
-      <c r="G2" t="n">
-        <v>242143.9799070018</v>
-      </c>
       <c r="H2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070019</v>
       </c>
       <c r="I2" t="n">
         <v>242143.9799070017</v>
@@ -26344,7 +26344,7 @@
         <v>242143.9799070018</v>
       </c>
       <c r="M2" t="n">
-        <v>246312.5309592847</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="N2" t="n">
         <v>246312.530959285</v>
@@ -26366,13 +26366,13 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245456</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>152035.0117225584</v>
+        <v>152035.0117225585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58835.35725450134</v>
+        <v>58835.35725450136</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467443</v>
@@ -26427,7 +26427,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719677</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
@@ -26436,28 +26436,28 @@
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719677</v>
+        <v>7507.36846171967</v>
       </c>
       <c r="J4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719688</v>
       </c>
       <c r="L4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>15498.22772481316</v>
+        <v>15498.22772481312</v>
       </c>
       <c r="N4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481312</v>
       </c>
       <c r="O4" t="n">
         <v>15498.22772481313</v>
       </c>
       <c r="P4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481313</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1059253.793144796</v>
+        <v>-1059579.138235078</v>
       </c>
       <c r="C6" t="n">
-        <v>20260.89497269575</v>
+        <v>20260.89497269597</v>
       </c>
       <c r="D6" t="n">
-        <v>20260.894972696</v>
+        <v>20260.89497269594</v>
       </c>
       <c r="E6" t="n">
-        <v>-373971.3600031706</v>
+        <v>-374006.0979286066</v>
       </c>
       <c r="F6" t="n">
-        <v>133514.0816213749</v>
+        <v>133479.3436959393</v>
       </c>
       <c r="G6" t="n">
-        <v>133514.0816213751</v>
+        <v>133479.3436959393</v>
       </c>
       <c r="H6" t="n">
-        <v>133514.081621375</v>
+        <v>133479.3436959394</v>
       </c>
       <c r="I6" t="n">
-        <v>133514.0816213749</v>
+        <v>133479.3436959393</v>
       </c>
       <c r="J6" t="n">
-        <v>-34091.09618860748</v>
+        <v>-34125.83411404317</v>
       </c>
       <c r="K6" t="n">
-        <v>133514.0816213751</v>
+        <v>133479.3436959393</v>
       </c>
       <c r="L6" t="n">
-        <v>133514.0816213751</v>
+        <v>133479.3436959393</v>
       </c>
       <c r="M6" t="n">
         <v>-24384.82434200219</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
         <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>246.2535455269614</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>163.0087083278942</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>48.74055427957225</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>203.0250936281271</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>39.07286331812406</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,13 +27670,13 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>2.243768904659191</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>160.2110210177355</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>153.5253779792056</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>224.0916977274092</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>118.9680317848988</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>16.068111409247</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>19.6605542774912</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28099,13 +28099,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.713266813875332e-12</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,13 +31838,13 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>263.3189197138078</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>163.5723821283055</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,16 +31853,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32090,10 +32090,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32333,10 +32333,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>364.3208035245835</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32494,7 +32494,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33433,7 +33433,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236507</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33904,7 +33904,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34778,7 +34778,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215495</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
@@ -34793,7 +34793,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>418.422987301597</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
         <v>326.5580100667036</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>544.5140226420056</v>
+        <v>436.2707275254369</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>412.0358695391846</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>591.2668520422178</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>136.4812930471411</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,16 +35501,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35662,7 +35662,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924728</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35738,10 +35738,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899057</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060454</v>
@@ -35981,10 +35981,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36294,7 +36294,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066232</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36376,10 +36376,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
         <v>418.6266618111711</v>
